--- a/Advanced Excel/Arithmatic Functions.xlsx
+++ b/Advanced Excel/Arithmatic Functions.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Repo\Data Analyst Assignment\Advanced Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAA93B9-A540-40B9-A2DE-0DFDF6DEF11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD72FEA-4982-4F05-B1DE-841E0FF0E6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arithmatic Functions" sheetId="1" r:id="rId1"/>
+    <sheet name="Operators" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Depart">'Arithmatic Functions'!$H$7:$H$44</definedName>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="120">
   <si>
     <t>Create a summary Data Analysis about the dataset given below.</t>
   </si>
@@ -406,13 +407,28 @@
   </si>
   <si>
     <t>Region &amp; Departmentwise Salary</t>
+  </si>
+  <si>
+    <t>Calculate HRA at 45% of Basic salary</t>
+  </si>
+  <si>
+    <t>Give Annual Bonus as 1000 Gift Voucher plus 5% of Basic salary</t>
+  </si>
+  <si>
+    <t>Calcualte Gross Salary</t>
+  </si>
+  <si>
+    <t>Calculate professional tax at 5%</t>
+  </si>
+  <si>
+    <t>Calcualte Net Salary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,6 +460,22 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -589,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -611,13 +643,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -627,6 +665,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -911,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="P48" sqref="P48"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -934,32 +979,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="M2" s="16" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="M2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="17"/>
+      <c r="N2" s="27"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
       <c r="M3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1151,10 +1196,10 @@
       <c r="J10" s="2">
         <v>87000</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="17"/>
+      <c r="N10" s="27"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -1429,13 +1474,13 @@
       <c r="J18" s="2">
         <v>43000</v>
       </c>
-      <c r="M18" s="18" t="s">
+      <c r="M18" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="20"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="24"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1513,19 +1558,19 @@
         <v>20</v>
       </c>
       <c r="N20" s="14">
-        <f>COUNTIFS(Depart,$M20,Reg,N$19)</f>
+        <f t="shared" ref="N20:Q30" si="0">COUNTIFS(Depart,$M20,Reg,N$19)</f>
         <v>1</v>
       </c>
       <c r="O20" s="14">
-        <f>COUNTIFS(Depart,$M20,Reg,O$19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P20" s="14">
-        <f>COUNTIFS(Depart,$M20,Reg,P$19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q20" s="14">
-        <f>COUNTIFS(Depart,$M20,Reg,Q$19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1561,19 +1606,19 @@
         <v>26</v>
       </c>
       <c r="N21" s="14">
-        <f>COUNTIFS(Depart,$M21,Reg,N$19)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="O21" s="14">
-        <f>COUNTIFS(Depart,$M21,Reg,O$19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P21" s="14">
-        <f>COUNTIFS(Depart,$M21,Reg,P$19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q21" s="14">
-        <f>COUNTIFS(Depart,$M21,Reg,Q$19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1609,19 +1654,19 @@
         <v>33</v>
       </c>
       <c r="N22" s="14">
-        <f>COUNTIFS(Depart,$M22,Reg,N$19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O22" s="14">
-        <f>COUNTIFS(Depart,$M22,Reg,O$19)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P22" s="14">
-        <f>COUNTIFS(Depart,$M22,Reg,P$19)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Q22" s="14">
-        <f>COUNTIFS(Depart,$M22,Reg,Q$19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1657,19 +1702,19 @@
         <v>38</v>
       </c>
       <c r="N23" s="14">
-        <f>COUNTIFS(Depart,$M23,Reg,N$19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O23" s="14">
-        <f>COUNTIFS(Depart,$M23,Reg,O$19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P23" s="14">
-        <f>COUNTIFS(Depart,$M23,Reg,P$19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q23" s="14">
-        <f>COUNTIFS(Depart,$M23,Reg,Q$19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1705,19 +1750,19 @@
         <v>41</v>
       </c>
       <c r="N24" s="14">
-        <f>COUNTIFS(Depart,$M24,Reg,N$19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O24" s="14">
-        <f>COUNTIFS(Depart,$M24,Reg,O$19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P24" s="14">
-        <f>COUNTIFS(Depart,$M24,Reg,P$19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q24" s="14">
-        <f>COUNTIFS(Depart,$M24,Reg,Q$19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1753,19 +1798,19 @@
         <v>45</v>
       </c>
       <c r="N25" s="14">
-        <f>COUNTIFS(Depart,$M25,Reg,N$19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O25" s="14">
-        <f>COUNTIFS(Depart,$M25,Reg,O$19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P25" s="14">
-        <f>COUNTIFS(Depart,$M25,Reg,P$19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q25" s="14">
-        <f>COUNTIFS(Depart,$M25,Reg,Q$19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1801,19 +1846,19 @@
         <v>62</v>
       </c>
       <c r="N26" s="14">
-        <f>COUNTIFS(Depart,$M26,Reg,N$19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O26" s="14">
-        <f>COUNTIFS(Depart,$M26,Reg,O$19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P26" s="14">
-        <f>COUNTIFS(Depart,$M26,Reg,P$19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q26" s="14">
-        <f>COUNTIFS(Depart,$M26,Reg,Q$19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1849,19 +1894,19 @@
         <v>65</v>
       </c>
       <c r="N27" s="14">
-        <f>COUNTIFS(Depart,$M27,Reg,N$19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O27" s="14">
-        <f>COUNTIFS(Depart,$M27,Reg,O$19)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P27" s="14">
-        <f>COUNTIFS(Depart,$M27,Reg,P$19)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Q27" s="14">
-        <f>COUNTIFS(Depart,$M27,Reg,Q$19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1897,19 +1942,19 @@
         <v>79</v>
       </c>
       <c r="N28" s="14">
-        <f>COUNTIFS(Depart,$M28,Reg,N$19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O28" s="14">
-        <f>COUNTIFS(Depart,$M28,Reg,O$19)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P28" s="14">
-        <f>COUNTIFS(Depart,$M28,Reg,P$19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q28" s="14">
-        <f>COUNTIFS(Depart,$M28,Reg,Q$19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1945,19 +1990,19 @@
         <v>82</v>
       </c>
       <c r="N29" s="14">
-        <f>COUNTIFS(Depart,$M29,Reg,N$19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O29" s="14">
-        <f>COUNTIFS(Depart,$M29,Reg,O$19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P29" s="14">
-        <f>COUNTIFS(Depart,$M29,Reg,P$19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q29" s="14">
-        <f>COUNTIFS(Depart,$M29,Reg,Q$19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1993,19 +2038,19 @@
         <v>93</v>
       </c>
       <c r="N30" s="14">
-        <f>COUNTIFS(Depart,$M30,Reg,N$19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O30" s="14">
-        <f>COUNTIFS(Depart,$M30,Reg,O$19)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P30" s="14">
-        <f>COUNTIFS(Depart,$M30,Reg,P$19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q30" s="14">
-        <f>COUNTIFS(Depart,$M30,Reg,Q$19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2066,13 +2111,13 @@
       <c r="J32" s="2">
         <v>53000</v>
       </c>
-      <c r="M32" s="18" t="s">
+      <c r="M32" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="20"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="24"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" s="4">
@@ -2150,19 +2195,19 @@
         <v>20</v>
       </c>
       <c r="N34" s="14">
-        <f>SUMIFS(Salary,Depart,$M34,Reg,N$33)</f>
+        <f t="shared" ref="N34:Q44" si="1">SUMIFS(Salary,Depart,$M34,Reg,N$33)</f>
         <v>48000</v>
       </c>
       <c r="O34" s="14">
-        <f>SUMIFS(Salary,Depart,$M34,Reg,O$33)</f>
+        <f t="shared" si="1"/>
         <v>62000</v>
       </c>
       <c r="P34" s="14">
-        <f>SUMIFS(Salary,Depart,$M34,Reg,P$33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q34" s="14">
-        <f>SUMIFS(Salary,Depart,$M34,Reg,Q$33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2198,19 +2243,19 @@
         <v>26</v>
       </c>
       <c r="N35" s="14">
-        <f>SUMIFS(Salary,Depart,$M35,Reg,N$33)</f>
+        <f t="shared" si="1"/>
         <v>183000</v>
       </c>
       <c r="O35" s="14">
-        <f>SUMIFS(Salary,Depart,$M35,Reg,O$33)</f>
+        <f t="shared" si="1"/>
         <v>82000</v>
       </c>
       <c r="P35" s="14">
-        <f>SUMIFS(Salary,Depart,$M35,Reg,P$33)</f>
+        <f t="shared" si="1"/>
         <v>92000</v>
       </c>
       <c r="Q35" s="14">
-        <f>SUMIFS(Salary,Depart,$M35,Reg,Q$33)</f>
+        <f t="shared" si="1"/>
         <v>45000</v>
       </c>
     </row>
@@ -2246,19 +2291,19 @@
         <v>33</v>
       </c>
       <c r="N36" s="14">
-        <f>SUMIFS(Salary,Depart,$M36,Reg,N$33)</f>
+        <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="O36" s="14">
-        <f>SUMIFS(Salary,Depart,$M36,Reg,O$33)</f>
+        <f t="shared" si="1"/>
         <v>154000</v>
       </c>
       <c r="P36" s="14">
-        <f>SUMIFS(Salary,Depart,$M36,Reg,P$33)</f>
+        <f t="shared" si="1"/>
         <v>95000</v>
       </c>
       <c r="Q36" s="14">
-        <f>SUMIFS(Salary,Depart,$M36,Reg,Q$33)</f>
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
     </row>
@@ -2294,19 +2339,19 @@
         <v>38</v>
       </c>
       <c r="N37" s="14">
-        <f>SUMIFS(Salary,Depart,$M37,Reg,N$33)</f>
+        <f t="shared" si="1"/>
         <v>22000</v>
       </c>
       <c r="O37" s="14">
-        <f>SUMIFS(Salary,Depart,$M37,Reg,O$33)</f>
+        <f t="shared" si="1"/>
         <v>58000</v>
       </c>
       <c r="P37" s="14">
-        <f>SUMIFS(Salary,Depart,$M37,Reg,P$33)</f>
+        <f t="shared" si="1"/>
         <v>27000</v>
       </c>
       <c r="Q37" s="14">
-        <f>SUMIFS(Salary,Depart,$M37,Reg,Q$33)</f>
+        <f t="shared" si="1"/>
         <v>47000</v>
       </c>
     </row>
@@ -2342,19 +2387,19 @@
         <v>41</v>
       </c>
       <c r="N38" s="14">
-        <f>SUMIFS(Salary,Depart,$M38,Reg,N$33)</f>
+        <f t="shared" si="1"/>
         <v>91000</v>
       </c>
       <c r="O38" s="14">
-        <f>SUMIFS(Salary,Depart,$M38,Reg,O$33)</f>
+        <f t="shared" si="1"/>
         <v>87000</v>
       </c>
       <c r="P38" s="14">
-        <f>SUMIFS(Salary,Depart,$M38,Reg,P$33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q38" s="14">
-        <f>SUMIFS(Salary,Depart,$M38,Reg,Q$33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2390,19 +2435,19 @@
         <v>45</v>
       </c>
       <c r="N39" s="14">
-        <f>SUMIFS(Salary,Depart,$M39,Reg,N$33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O39" s="14">
-        <f>SUMIFS(Salary,Depart,$M39,Reg,O$33)</f>
+        <f t="shared" si="1"/>
         <v>37000</v>
       </c>
       <c r="P39" s="14">
-        <f>SUMIFS(Salary,Depart,$M39,Reg,P$33)</f>
+        <f t="shared" si="1"/>
         <v>43000</v>
       </c>
       <c r="Q39" s="14">
-        <f>SUMIFS(Salary,Depart,$M39,Reg,Q$33)</f>
+        <f t="shared" si="1"/>
         <v>77000</v>
       </c>
     </row>
@@ -2438,19 +2483,19 @@
         <v>62</v>
       </c>
       <c r="N40" s="14">
-        <f>SUMIFS(Salary,Depart,$M40,Reg,N$33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O40" s="14">
-        <f>SUMIFS(Salary,Depart,$M40,Reg,O$33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P40" s="14">
-        <f>SUMIFS(Salary,Depart,$M40,Reg,P$33)</f>
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
       <c r="Q40" s="14">
-        <f>SUMIFS(Salary,Depart,$M40,Reg,Q$33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2486,19 +2531,19 @@
         <v>65</v>
       </c>
       <c r="N41" s="14">
-        <f>SUMIFS(Salary,Depart,$M41,Reg,N$33)</f>
+        <f t="shared" si="1"/>
         <v>26000</v>
       </c>
       <c r="O41" s="14">
-        <f>SUMIFS(Salary,Depart,$M41,Reg,O$33)</f>
+        <f t="shared" si="1"/>
         <v>135000</v>
       </c>
       <c r="P41" s="14">
-        <f>SUMIFS(Salary,Depart,$M41,Reg,P$33)</f>
+        <f t="shared" si="1"/>
         <v>81000</v>
       </c>
       <c r="Q41" s="14">
-        <f>SUMIFS(Salary,Depart,$M41,Reg,Q$33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2534,19 +2579,19 @@
         <v>79</v>
       </c>
       <c r="N42" s="14">
-        <f>SUMIFS(Salary,Depart,$M42,Reg,N$33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O42" s="14">
-        <f>SUMIFS(Salary,Depart,$M42,Reg,O$33)</f>
+        <f t="shared" si="1"/>
         <v>146000</v>
       </c>
       <c r="P42" s="14">
-        <f>SUMIFS(Salary,Depart,$M42,Reg,P$33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q42" s="14">
-        <f>SUMIFS(Salary,Depart,$M42,Reg,Q$33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2582,19 +2627,19 @@
         <v>82</v>
       </c>
       <c r="N43" s="14">
-        <f>SUMIFS(Salary,Depart,$M43,Reg,N$33)</f>
+        <f t="shared" si="1"/>
         <v>85000</v>
       </c>
       <c r="O43" s="14">
-        <f>SUMIFS(Salary,Depart,$M43,Reg,O$33)</f>
+        <f t="shared" si="1"/>
         <v>19000</v>
       </c>
       <c r="P43" s="14">
-        <f>SUMIFS(Salary,Depart,$M43,Reg,P$33)</f>
+        <f t="shared" si="1"/>
         <v>49000</v>
       </c>
       <c r="Q43" s="14">
-        <f>SUMIFS(Salary,Depart,$M43,Reg,Q$33)</f>
+        <f t="shared" si="1"/>
         <v>83000</v>
       </c>
     </row>
@@ -2630,19 +2675,19 @@
         <v>93</v>
       </c>
       <c r="N44" s="14">
-        <f>SUMIFS(Salary,Depart,$M44,Reg,N$33)</f>
+        <f t="shared" si="1"/>
         <v>52000</v>
       </c>
       <c r="O44" s="14">
-        <f>SUMIFS(Salary,Depart,$M44,Reg,O$33)</f>
+        <f t="shared" si="1"/>
         <v>110000</v>
       </c>
       <c r="P44" s="14">
-        <f>SUMIFS(Salary,Depart,$M44,Reg,P$33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q44" s="14">
-        <f>SUMIFS(Salary,Depart,$M44,Reg,Q$33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2657,4 +2702,1999 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE53BDA-381D-45B3-9E4E-05F9CD6F2B4D}">
+  <dimension ref="B2:O46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="15">
+        <v>2</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="15">
+        <v>3</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="15">
+        <v>4</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="15">
+        <v>5</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="17">
+        <v>1</v>
+      </c>
+      <c r="L8" s="17">
+        <v>2</v>
+      </c>
+      <c r="M8" s="17">
+        <v>3</v>
+      </c>
+      <c r="N8" s="17">
+        <v>4</v>
+      </c>
+      <c r="O8" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="18">
+        <v>150834</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="20">
+        <v>31199</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="10">
+        <v>48000</v>
+      </c>
+      <c r="K9" s="10">
+        <f>J9*45%</f>
+        <v>21600</v>
+      </c>
+      <c r="L9" s="10">
+        <f>(J9*5%)+1000</f>
+        <v>3400</v>
+      </c>
+      <c r="M9" s="10">
+        <f>SUM(J9:L9)</f>
+        <v>73000</v>
+      </c>
+      <c r="N9" s="10">
+        <f>M9*5%</f>
+        <v>3650</v>
+      </c>
+      <c r="O9" s="10">
+        <f>M9-N9</f>
+        <v>69350</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="18">
+        <v>150784</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="20">
+        <v>28365</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="10">
+        <v>35000</v>
+      </c>
+      <c r="K10" s="10">
+        <f t="shared" ref="K10:K46" si="0">J10*45%</f>
+        <v>15750</v>
+      </c>
+      <c r="L10" s="10">
+        <f t="shared" ref="L10:L46" si="1">(J10*5%)+1000</f>
+        <v>2750</v>
+      </c>
+      <c r="M10" s="10">
+        <f t="shared" ref="M10:M46" si="2">SUM(J10:L10)</f>
+        <v>53500</v>
+      </c>
+      <c r="N10" s="10">
+        <f t="shared" ref="N10:N46" si="3">M10*5%</f>
+        <v>2675</v>
+      </c>
+      <c r="O10" s="10">
+        <f t="shared" ref="O10:O46" si="4">M10-N10</f>
+        <v>50825</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="18">
+        <v>150791</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="20">
+        <v>23346</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="10">
+        <v>67000</v>
+      </c>
+      <c r="K11" s="10">
+        <f t="shared" si="0"/>
+        <v>30150</v>
+      </c>
+      <c r="L11" s="10">
+        <f t="shared" si="1"/>
+        <v>4350</v>
+      </c>
+      <c r="M11" s="10">
+        <f t="shared" si="2"/>
+        <v>101500</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" si="3"/>
+        <v>5075</v>
+      </c>
+      <c r="O11" s="10">
+        <f t="shared" si="4"/>
+        <v>96425</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="18">
+        <v>150940</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="20">
+        <v>26906</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="10">
+        <v>87000</v>
+      </c>
+      <c r="K12" s="10">
+        <f t="shared" si="0"/>
+        <v>39150</v>
+      </c>
+      <c r="L12" s="10">
+        <f t="shared" si="1"/>
+        <v>5350</v>
+      </c>
+      <c r="M12" s="10">
+        <f t="shared" si="2"/>
+        <v>131500</v>
+      </c>
+      <c r="N12" s="10">
+        <f t="shared" si="3"/>
+        <v>6575</v>
+      </c>
+      <c r="O12" s="10">
+        <f t="shared" si="4"/>
+        <v>124925</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="18">
+        <v>150777</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="20">
+        <v>21123</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="10">
+        <v>22000</v>
+      </c>
+      <c r="K13" s="10">
+        <f t="shared" si="0"/>
+        <v>9900</v>
+      </c>
+      <c r="L13" s="10">
+        <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" si="2"/>
+        <v>34000</v>
+      </c>
+      <c r="N13" s="10">
+        <f t="shared" si="3"/>
+        <v>1700</v>
+      </c>
+      <c r="O13" s="10">
+        <f t="shared" si="4"/>
+        <v>32300</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="18">
+        <v>150805</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="20">
+        <v>26172</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="10">
+        <v>91000</v>
+      </c>
+      <c r="K14" s="10">
+        <f t="shared" si="0"/>
+        <v>40950</v>
+      </c>
+      <c r="L14" s="10">
+        <f t="shared" si="1"/>
+        <v>5550</v>
+      </c>
+      <c r="M14" s="10">
+        <f t="shared" si="2"/>
+        <v>137500</v>
+      </c>
+      <c r="N14" s="10">
+        <f t="shared" si="3"/>
+        <v>6875</v>
+      </c>
+      <c r="O14" s="10">
+        <f t="shared" si="4"/>
+        <v>130625</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="18">
+        <v>150990</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="20">
+        <v>36400</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="10">
+        <v>77000</v>
+      </c>
+      <c r="K15" s="10">
+        <f t="shared" si="0"/>
+        <v>34650</v>
+      </c>
+      <c r="L15" s="10">
+        <f t="shared" si="1"/>
+        <v>4850</v>
+      </c>
+      <c r="M15" s="10">
+        <f t="shared" si="2"/>
+        <v>116500</v>
+      </c>
+      <c r="N15" s="10">
+        <f t="shared" si="3"/>
+        <v>5825</v>
+      </c>
+      <c r="O15" s="10">
+        <f t="shared" si="4"/>
+        <v>110675</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="18">
+        <v>150989</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="20">
+        <v>33113</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="10">
+        <v>45000</v>
+      </c>
+      <c r="K16" s="10">
+        <f t="shared" si="0"/>
+        <v>20250</v>
+      </c>
+      <c r="L16" s="10">
+        <f t="shared" si="1"/>
+        <v>3250</v>
+      </c>
+      <c r="M16" s="10">
+        <f t="shared" si="2"/>
+        <v>68500</v>
+      </c>
+      <c r="N16" s="10">
+        <f t="shared" si="3"/>
+        <v>3425</v>
+      </c>
+      <c r="O16" s="10">
+        <f t="shared" si="4"/>
+        <v>65075</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="18">
+        <v>150881</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="20">
+        <v>30337</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="10">
+        <v>92000</v>
+      </c>
+      <c r="K17" s="10">
+        <f t="shared" si="0"/>
+        <v>41400</v>
+      </c>
+      <c r="L17" s="10">
+        <f t="shared" si="1"/>
+        <v>5600</v>
+      </c>
+      <c r="M17" s="10">
+        <f t="shared" si="2"/>
+        <v>139000</v>
+      </c>
+      <c r="N17" s="10">
+        <f t="shared" si="3"/>
+        <v>6950</v>
+      </c>
+      <c r="O17" s="10">
+        <f t="shared" si="4"/>
+        <v>132050</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="18">
+        <v>150814</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="20">
+        <v>26246</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="10">
+        <v>50000</v>
+      </c>
+      <c r="K18" s="10">
+        <f t="shared" si="0"/>
+        <v>22500</v>
+      </c>
+      <c r="L18" s="10">
+        <f t="shared" si="1"/>
+        <v>3500</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="2"/>
+        <v>76000</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="3"/>
+        <v>3800</v>
+      </c>
+      <c r="O18" s="10">
+        <f t="shared" si="4"/>
+        <v>72200</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="18">
+        <v>150937</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="20">
+        <v>24700</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="10">
+        <v>37000</v>
+      </c>
+      <c r="K19" s="10">
+        <f t="shared" si="0"/>
+        <v>16650</v>
+      </c>
+      <c r="L19" s="10">
+        <f t="shared" si="1"/>
+        <v>2850</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="2"/>
+        <v>56500</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="3"/>
+        <v>2825</v>
+      </c>
+      <c r="O19" s="10">
+        <f t="shared" si="4"/>
+        <v>53675</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="18">
+        <v>150888</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="20">
+        <v>29221</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="10">
+        <v>43000</v>
+      </c>
+      <c r="K20" s="10">
+        <f t="shared" si="0"/>
+        <v>19350</v>
+      </c>
+      <c r="L20" s="10">
+        <f t="shared" si="1"/>
+        <v>3150</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="2"/>
+        <v>65500</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="3"/>
+        <v>3275</v>
+      </c>
+      <c r="O20" s="10">
+        <f t="shared" si="4"/>
+        <v>62225</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="18">
+        <v>150865</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="20">
+        <v>31279</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="10">
+        <v>90000</v>
+      </c>
+      <c r="K21" s="10">
+        <f t="shared" si="0"/>
+        <v>40500</v>
+      </c>
+      <c r="L21" s="10">
+        <f t="shared" si="1"/>
+        <v>5500</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" si="2"/>
+        <v>136000</v>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="3"/>
+        <v>6800</v>
+      </c>
+      <c r="O21" s="10">
+        <f t="shared" si="4"/>
+        <v>129200</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="18">
+        <v>150858</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="20">
+        <v>34846</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="10">
+        <v>34000</v>
+      </c>
+      <c r="K22" s="10">
+        <f t="shared" si="0"/>
+        <v>15300</v>
+      </c>
+      <c r="L22" s="10">
+        <f t="shared" si="1"/>
+        <v>2700</v>
+      </c>
+      <c r="M22" s="10">
+        <f t="shared" si="2"/>
+        <v>52000</v>
+      </c>
+      <c r="N22" s="10">
+        <f t="shared" si="3"/>
+        <v>2600</v>
+      </c>
+      <c r="O22" s="10">
+        <f t="shared" si="4"/>
+        <v>49400</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="18">
+        <v>150930</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="20">
+        <v>37027</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="10">
+        <v>82000</v>
+      </c>
+      <c r="K23" s="10">
+        <f t="shared" si="0"/>
+        <v>36900</v>
+      </c>
+      <c r="L23" s="10">
+        <f t="shared" si="1"/>
+        <v>5100</v>
+      </c>
+      <c r="M23" s="10">
+        <f t="shared" si="2"/>
+        <v>124000</v>
+      </c>
+      <c r="N23" s="10">
+        <f t="shared" si="3"/>
+        <v>6200</v>
+      </c>
+      <c r="O23" s="10">
+        <f t="shared" si="4"/>
+        <v>117800</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="18">
+        <v>150894</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="20">
+        <v>37124</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="10">
+        <v>67000</v>
+      </c>
+      <c r="K24" s="10">
+        <f t="shared" si="0"/>
+        <v>30150</v>
+      </c>
+      <c r="L24" s="10">
+        <f t="shared" si="1"/>
+        <v>4350</v>
+      </c>
+      <c r="M24" s="10">
+        <f t="shared" si="2"/>
+        <v>101500</v>
+      </c>
+      <c r="N24" s="10">
+        <f t="shared" si="3"/>
+        <v>5075</v>
+      </c>
+      <c r="O24" s="10">
+        <f t="shared" si="4"/>
+        <v>96425</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="18">
+        <v>150947</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="20">
+        <v>33449</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="10">
+        <v>85000</v>
+      </c>
+      <c r="K25" s="10">
+        <f t="shared" si="0"/>
+        <v>38250</v>
+      </c>
+      <c r="L25" s="10">
+        <f t="shared" si="1"/>
+        <v>5250</v>
+      </c>
+      <c r="M25" s="10">
+        <f t="shared" si="2"/>
+        <v>128500</v>
+      </c>
+      <c r="N25" s="10">
+        <f t="shared" si="3"/>
+        <v>6425</v>
+      </c>
+      <c r="O25" s="10">
+        <f t="shared" si="4"/>
+        <v>122075</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="18">
+        <v>150905</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="20">
+        <v>30819</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="10">
+        <v>62000</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="0"/>
+        <v>27900</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>4100</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="2"/>
+        <v>94000</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="3"/>
+        <v>4700</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="4"/>
+        <v>89300</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="18">
+        <v>150995</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="20">
+        <v>35330</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="10">
+        <v>15000</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="0"/>
+        <v>6750</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" si="1"/>
+        <v>1750</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="2"/>
+        <v>23500</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="3"/>
+        <v>1175</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="4"/>
+        <v>22325</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="18">
+        <v>150912</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="20">
+        <v>37629</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="10">
+        <v>81000</v>
+      </c>
+      <c r="K28" s="10">
+        <f t="shared" si="0"/>
+        <v>36450</v>
+      </c>
+      <c r="L28" s="10">
+        <f t="shared" si="1"/>
+        <v>5050</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" si="2"/>
+        <v>122500</v>
+      </c>
+      <c r="N28" s="10">
+        <f t="shared" si="3"/>
+        <v>6125</v>
+      </c>
+      <c r="O28" s="10">
+        <f t="shared" si="4"/>
+        <v>116375</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="18">
+        <v>150921</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="20">
+        <v>38092</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" s="10">
+        <v>19000</v>
+      </c>
+      <c r="K29" s="10">
+        <f t="shared" si="0"/>
+        <v>8550</v>
+      </c>
+      <c r="L29" s="10">
+        <f t="shared" si="1"/>
+        <v>1950</v>
+      </c>
+      <c r="M29" s="10">
+        <f t="shared" si="2"/>
+        <v>29500</v>
+      </c>
+      <c r="N29" s="10">
+        <f t="shared" si="3"/>
+        <v>1475</v>
+      </c>
+      <c r="O29" s="10">
+        <f t="shared" si="4"/>
+        <v>28025</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="18">
+        <v>150851</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="20">
+        <v>29368</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" s="10">
+        <v>75000</v>
+      </c>
+      <c r="K30" s="10">
+        <f t="shared" si="0"/>
+        <v>33750</v>
+      </c>
+      <c r="L30" s="10">
+        <f t="shared" si="1"/>
+        <v>4750</v>
+      </c>
+      <c r="M30" s="10">
+        <f t="shared" si="2"/>
+        <v>113500</v>
+      </c>
+      <c r="N30" s="10">
+        <f t="shared" si="3"/>
+        <v>5675</v>
+      </c>
+      <c r="O30" s="10">
+        <f t="shared" si="4"/>
+        <v>107825</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="18">
+        <v>150867</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="20">
+        <v>29028</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" s="10">
+        <v>49000</v>
+      </c>
+      <c r="K31" s="10">
+        <f t="shared" si="0"/>
+        <v>22050</v>
+      </c>
+      <c r="L31" s="10">
+        <f t="shared" si="1"/>
+        <v>3450</v>
+      </c>
+      <c r="M31" s="10">
+        <f t="shared" si="2"/>
+        <v>74500</v>
+      </c>
+      <c r="N31" s="10">
+        <f t="shared" si="3"/>
+        <v>3725</v>
+      </c>
+      <c r="O31" s="10">
+        <f t="shared" si="4"/>
+        <v>70775</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="18">
+        <v>150899</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="20">
+        <v>37400</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" s="10">
+        <v>50000</v>
+      </c>
+      <c r="K32" s="10">
+        <f t="shared" si="0"/>
+        <v>22500</v>
+      </c>
+      <c r="L32" s="10">
+        <f t="shared" si="1"/>
+        <v>3500</v>
+      </c>
+      <c r="M32" s="10">
+        <f t="shared" si="2"/>
+        <v>76000</v>
+      </c>
+      <c r="N32" s="10">
+        <f t="shared" si="3"/>
+        <v>3800</v>
+      </c>
+      <c r="O32" s="10">
+        <f t="shared" si="4"/>
+        <v>72200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="18">
+        <v>150975</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="20">
+        <v>31478</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" s="10">
+        <v>83000</v>
+      </c>
+      <c r="K33" s="10">
+        <f t="shared" si="0"/>
+        <v>37350</v>
+      </c>
+      <c r="L33" s="10">
+        <f t="shared" si="1"/>
+        <v>5150</v>
+      </c>
+      <c r="M33" s="10">
+        <f t="shared" si="2"/>
+        <v>125500</v>
+      </c>
+      <c r="N33" s="10">
+        <f t="shared" si="3"/>
+        <v>6275</v>
+      </c>
+      <c r="O33" s="10">
+        <f t="shared" si="4"/>
+        <v>119225</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="18">
+        <v>150901</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="20">
+        <v>32946</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="10">
+        <v>53000</v>
+      </c>
+      <c r="K34" s="10">
+        <f t="shared" si="0"/>
+        <v>23850</v>
+      </c>
+      <c r="L34" s="10">
+        <f t="shared" si="1"/>
+        <v>3650</v>
+      </c>
+      <c r="M34" s="10">
+        <f t="shared" si="2"/>
+        <v>80500</v>
+      </c>
+      <c r="N34" s="10">
+        <f t="shared" si="3"/>
+        <v>4025</v>
+      </c>
+      <c r="O34" s="10">
+        <f t="shared" si="4"/>
+        <v>76475</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B35" s="18">
+        <v>150968</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="20">
+        <v>37208</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35" s="10">
+        <v>65000</v>
+      </c>
+      <c r="K35" s="10">
+        <f t="shared" si="0"/>
+        <v>29250</v>
+      </c>
+      <c r="L35" s="10">
+        <f t="shared" si="1"/>
+        <v>4250</v>
+      </c>
+      <c r="M35" s="10">
+        <f t="shared" si="2"/>
+        <v>98500</v>
+      </c>
+      <c r="N35" s="10">
+        <f t="shared" si="3"/>
+        <v>4925</v>
+      </c>
+      <c r="O35" s="10">
+        <f t="shared" si="4"/>
+        <v>93575</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B36" s="18">
+        <v>150773</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="20">
+        <v>26860</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="10">
+        <v>85000</v>
+      </c>
+      <c r="K36" s="10">
+        <f t="shared" si="0"/>
+        <v>38250</v>
+      </c>
+      <c r="L36" s="10">
+        <f t="shared" si="1"/>
+        <v>5250</v>
+      </c>
+      <c r="M36" s="10">
+        <f t="shared" si="2"/>
+        <v>128500</v>
+      </c>
+      <c r="N36" s="10">
+        <f t="shared" si="3"/>
+        <v>6425</v>
+      </c>
+      <c r="O36" s="10">
+        <f t="shared" si="4"/>
+        <v>122075</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B37" s="18">
+        <v>150840</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="20">
+        <v>23136</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J37" s="10">
+        <v>20000</v>
+      </c>
+      <c r="K37" s="10">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="L37" s="10">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="M37" s="10">
+        <f t="shared" si="2"/>
+        <v>31000</v>
+      </c>
+      <c r="N37" s="10">
+        <f t="shared" si="3"/>
+        <v>1550</v>
+      </c>
+      <c r="O37" s="10">
+        <f t="shared" si="4"/>
+        <v>29450</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B38" s="18">
+        <v>150850</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="20">
+        <v>32027</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J38" s="10">
+        <v>47000</v>
+      </c>
+      <c r="K38" s="10">
+        <f t="shared" si="0"/>
+        <v>21150</v>
+      </c>
+      <c r="L38" s="10">
+        <f t="shared" si="1"/>
+        <v>3350</v>
+      </c>
+      <c r="M38" s="10">
+        <f t="shared" si="2"/>
+        <v>71500</v>
+      </c>
+      <c r="N38" s="10">
+        <f t="shared" si="3"/>
+        <v>3575</v>
+      </c>
+      <c r="O38" s="10">
+        <f t="shared" si="4"/>
+        <v>67925</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B39" s="18">
+        <v>150962</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="20">
+        <v>37773</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J39" s="10">
+        <v>87000</v>
+      </c>
+      <c r="K39" s="10">
+        <f t="shared" si="0"/>
+        <v>39150</v>
+      </c>
+      <c r="L39" s="10">
+        <f t="shared" si="1"/>
+        <v>5350</v>
+      </c>
+      <c r="M39" s="10">
+        <f t="shared" si="2"/>
+        <v>131500</v>
+      </c>
+      <c r="N39" s="10">
+        <f t="shared" si="3"/>
+        <v>6575</v>
+      </c>
+      <c r="O39" s="10">
+        <f t="shared" si="4"/>
+        <v>124925</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B40" s="18">
+        <v>150954</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="20">
+        <v>35495</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J40" s="10">
+        <v>57000</v>
+      </c>
+      <c r="K40" s="10">
+        <f t="shared" si="0"/>
+        <v>25650</v>
+      </c>
+      <c r="L40" s="10">
+        <f t="shared" si="1"/>
+        <v>3850</v>
+      </c>
+      <c r="M40" s="10">
+        <f t="shared" si="2"/>
+        <v>86500</v>
+      </c>
+      <c r="N40" s="10">
+        <f t="shared" si="3"/>
+        <v>4325</v>
+      </c>
+      <c r="O40" s="10">
+        <f t="shared" si="4"/>
+        <v>82175</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B41" s="18">
+        <v>150874</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="20">
+        <v>37890</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J41" s="10">
+        <v>27000</v>
+      </c>
+      <c r="K41" s="10">
+        <f t="shared" si="0"/>
+        <v>12150</v>
+      </c>
+      <c r="L41" s="10">
+        <f t="shared" si="1"/>
+        <v>2350</v>
+      </c>
+      <c r="M41" s="10">
+        <f t="shared" si="2"/>
+        <v>41500</v>
+      </c>
+      <c r="N41" s="10">
+        <f t="shared" si="3"/>
+        <v>2075</v>
+      </c>
+      <c r="O41" s="10">
+        <f t="shared" si="4"/>
+        <v>39425</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B42" s="18">
+        <v>150798</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="20">
+        <v>28276</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="10">
+        <v>81000</v>
+      </c>
+      <c r="K42" s="10">
+        <f t="shared" si="0"/>
+        <v>36450</v>
+      </c>
+      <c r="L42" s="10">
+        <f t="shared" si="1"/>
+        <v>5050</v>
+      </c>
+      <c r="M42" s="10">
+        <f t="shared" si="2"/>
+        <v>122500</v>
+      </c>
+      <c r="N42" s="10">
+        <f t="shared" si="3"/>
+        <v>6125</v>
+      </c>
+      <c r="O42" s="10">
+        <f t="shared" si="4"/>
+        <v>116375</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B43" s="18">
+        <v>150830</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="20">
+        <v>29037</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="10">
+        <v>52000</v>
+      </c>
+      <c r="K43" s="10">
+        <f t="shared" si="0"/>
+        <v>23400</v>
+      </c>
+      <c r="L43" s="10">
+        <f t="shared" si="1"/>
+        <v>3600</v>
+      </c>
+      <c r="M43" s="10">
+        <f t="shared" si="2"/>
+        <v>79000</v>
+      </c>
+      <c r="N43" s="10">
+        <f t="shared" si="3"/>
+        <v>3950</v>
+      </c>
+      <c r="O43" s="10">
+        <f t="shared" si="4"/>
+        <v>75050</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B44" s="18">
+        <v>150929</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="20">
+        <v>26739</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J44" s="10">
+        <v>58000</v>
+      </c>
+      <c r="K44" s="10">
+        <f t="shared" si="0"/>
+        <v>26100</v>
+      </c>
+      <c r="L44" s="10">
+        <f t="shared" si="1"/>
+        <v>3900</v>
+      </c>
+      <c r="M44" s="10">
+        <f t="shared" si="2"/>
+        <v>88000</v>
+      </c>
+      <c r="N44" s="10">
+        <f t="shared" si="3"/>
+        <v>4400</v>
+      </c>
+      <c r="O44" s="10">
+        <f t="shared" si="4"/>
+        <v>83600</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B45" s="18">
+        <v>150982</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="20">
+        <v>35574</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J45" s="10">
+        <v>47000</v>
+      </c>
+      <c r="K45" s="10">
+        <f t="shared" si="0"/>
+        <v>21150</v>
+      </c>
+      <c r="L45" s="10">
+        <f t="shared" si="1"/>
+        <v>3350</v>
+      </c>
+      <c r="M45" s="10">
+        <f t="shared" si="2"/>
+        <v>71500</v>
+      </c>
+      <c r="N45" s="10">
+        <f t="shared" si="3"/>
+        <v>3575</v>
+      </c>
+      <c r="O45" s="10">
+        <f t="shared" si="4"/>
+        <v>67925</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B46" s="18">
+        <v>150821</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="20">
+        <v>29966</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="10">
+        <v>26000</v>
+      </c>
+      <c r="K46" s="10">
+        <f t="shared" si="0"/>
+        <v>11700</v>
+      </c>
+      <c r="L46" s="10">
+        <f t="shared" si="1"/>
+        <v>2300</v>
+      </c>
+      <c r="M46" s="10">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="N46" s="10">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="O46" s="10">
+        <f t="shared" si="4"/>
+        <v>38000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>